--- a/aichan/558004740963563472_2021-08-12_17-03-23.xlsx
+++ b/aichan/558004740963563472_2021-08-12_17-03-23.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -562,10 +578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-08-15 16:14:21</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44423.67663194444</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -629,10 +643,8 @@
           <t>5156440194</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:54:27</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44422.6628125</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -700,10 +712,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:32:51</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44422.6478125</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,10 +789,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:30:02</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44422.64585648148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -854,10 +862,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:23:58</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44422.64164351852</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -933,10 +939,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:22:30</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44422.640625</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1008,10 +1012,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:17:47</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44422.63734953704</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1087,10 +1089,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:16:05</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44422.63616898148</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1166,10 +1166,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:13:07</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44422.63410879629</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1241,10 +1239,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:12:14</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44422.63349537037</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1316,10 +1312,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:09:58</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44422.6319212963</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1391,10 +1385,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-08-14 15:09:17</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44422.63144675926</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1466,10 +1458,8 @@
           <t>5152837936</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-08-14 07:13:19</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44422.30091435185</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1545,10 +1535,8 @@
           <t>5148952447</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-08-13 19:33:11</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44421.81471064815</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -1624,10 +1612,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-08-13 18:15:48</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44421.76097222222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1695,10 +1681,8 @@
           <t>5147680541</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:22:12</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44421.72375</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1774,10 +1758,8 @@
           <t>5147563124</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-08-13 17:09:17</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44421.7147800926</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1841,10 +1823,8 @@
           <t>5147359091</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-08-13 16:44:53</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44421.69783564815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1920,10 +1900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-08-13 15:08:00</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44421.63055555556</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1987,10 +1965,8 @@
           <t>5141617492</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:53:24</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44421.62041666666</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2058,10 +2034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-08-13 14:18:59</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44421.5965162037</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -2125,10 +2099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-08-13 13:54:04</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44421.57921296296</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2188,10 +2160,8 @@
           <t>5146134207</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-08-13 13:51:31</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44421.57744212963</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2255,10 +2225,8 @@
           <t>5145590151</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-08-13 12:44:05</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44421.53061342592</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2326,10 +2294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-08-13 11:06:39</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44421.46295138889</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2393,10 +2359,8 @@
           <t>5144668739</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:53:04</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44421.45351851852</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2461,10 +2425,8 @@
           <t>5144647045</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:48:53</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44421.45061342593</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2529,10 +2491,8 @@
           <t>5143459458</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:21:35</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44421.43165509259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2608,10 +2568,8 @@
           <t>5143459458</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:20:06</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44421.430625</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2687,10 +2645,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-08-13 10:12:39</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44421.42545138889</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2766,10 +2722,8 @@
           <t>5141617492</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-08-13 09:53:58</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44421.41247685185</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2837,10 +2791,8 @@
           <t>5141717470</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-08-13 09:51:00</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44421.41041666667</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2908,10 +2860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-08-13 09:31:42</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44421.39701388889</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2971,10 +2921,8 @@
           <t>5143459458</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-08-13 09:31:29</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44421.39686342593</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3050,10 +2998,8 @@
           <t>5141717470</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-08-13 09:13:19</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44421.38424768519</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3129,10 +3075,8 @@
           <t>5143907699</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:48:13</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44421.36681712963</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3192,10 +3136,8 @@
           <t>5143854792</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:37:46</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44421.35956018518</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3273,10 +3215,8 @@
           <t>5143459458</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-08-13 08:09:05</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44421.3396412037</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3349,10 +3289,8 @@
           <t>5142300492</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:29:43</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44421.31230324074</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3424,10 +3362,8 @@
           <t>5142300492</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:29:30</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44421.31215277778</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3499,10 +3435,8 @@
           <t>5143563879</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:18:45</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44421.3046875</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3574,10 +3508,8 @@
           <t>5143566517</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:17:16</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44421.30365740741</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3649,10 +3581,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:10:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44421.29920138889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3724,10 +3654,8 @@
           <t>5141274827</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:09:39</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44421.29836805556</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3799,10 +3727,8 @@
           <t>5142300492</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:02:34</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44421.29344907407</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3878,10 +3804,8 @@
           <t>5142300492</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-08-13 07:01:37</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44421.29278935185</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3957,10 +3881,8 @@
           <t>5143459458</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-08-13 06:23:37</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44421.26640046296</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4024,10 +3946,8 @@
           <t>5141717470</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-08-13 04:19:29</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44421.18019675926</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4106,10 +4026,8 @@
           <t>5143143415</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-08-13 02:30:59</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44421.10484953703</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4177,10 +4095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:33:24</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44421.06486111111</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4256,10 +4172,8 @@
           <t>5142927176</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-08-13 01:28:21</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44421.06135416667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4341,10 +4255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:33:40</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44421.02337962963</v>
       </c>
       <c r="I53" t="n">
         <v>5</v>
@@ -4408,10 +4320,8 @@
           <t>5141617492</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:29:06</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44421.02020833334</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4480,10 +4390,8 @@
           <t>5142300492</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:13:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44421.00953703704</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4555,10 +4463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-08-13 00:09:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44421.00625</v>
       </c>
       <c r="I56" t="n">
         <v>5</v>
@@ -4618,10 +4524,8 @@
           <t>5141753221</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:58:20</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44420.99884259259</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4689,10 +4593,8 @@
           <t>5142300492</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:47:16</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44420.99115740741</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4764,10 +4666,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:25:56</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44420.97634259259</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4831,10 +4731,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:22:37</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44420.97403935185</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4902,10 +4800,8 @@
           <t>5141753221</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:06:40</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44420.96296296296</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4982,10 +4878,8 @@
           <t>5141897694</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-08-12 23:03:11</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44420.96054398148</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5061,10 +4955,8 @@
           <t>5141706580</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:59:41</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44420.95811342593</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5132,10 +5024,8 @@
           <t>5141849011</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:58:19</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44420.95716435185</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5203,10 +5093,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:56:57</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44420.95621527778</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5278,10 +5166,8 @@
           <t>5138836124</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:53:33</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44420.95385416667</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5353,10 +5239,8 @@
           <t>5141802141</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:52:46</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44420.95331018518</v>
       </c>
       <c r="I67" t="n">
         <v>4</v>
@@ -5420,10 +5304,8 @@
           <t>5141753221</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:47:32</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44420.94967592593</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5491,10 +5373,8 @@
           <t>5141717470</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:44:15</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44420.94739583333</v>
       </c>
       <c r="I69" t="n">
         <v>8</v>
@@ -5562,10 +5442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:43:21</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44420.94677083333</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5637,10 +5515,8 @@
           <t>5141711049</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:43:13</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44420.94667824074</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5708,10 +5584,8 @@
           <t>5141706580</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:42:32</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44420.9462037037</v>
       </c>
       <c r="I72" t="n">
         <v>3</v>
@@ -5779,10 +5653,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:42:13</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44420.94598379629</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5858,10 +5730,8 @@
           <t>5141686758</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:41:01</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44420.94515046296</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5929,10 +5799,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:39:54</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44420.944375</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6000,10 +5868,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:39:37</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44420.94417824074</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6079,10 +5945,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:38:33</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44420.9434375</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6150,10 +6014,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:37:57</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44420.94302083334</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6229,10 +6091,8 @@
           <t>5141617492</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:33:46</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44420.94011574074</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6300,10 +6160,8 @@
           <t>5141608949</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:33:20</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44420.93981481482</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6367,10 +6225,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:31:49</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44420.93876157407</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6434,10 +6290,8 @@
           <t>5141590653</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:31:03</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44420.93822916667</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6501,10 +6355,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-08-12 22:27:52</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44420.93601851852</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6576,10 +6428,8 @@
           <t>5141274827</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:59:47</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44420.9165162037</v>
       </c>
       <c r="I84" t="n">
         <v>2</v>
@@ -6643,10 +6493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:51:14</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44420.9105787037</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6718,10 +6566,8 @@
           <t>5141170140</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:47:40</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44420.90810185186</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6793,10 +6639,8 @@
           <t>5141094590</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:40:20</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44420.90300925926</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6864,10 +6708,8 @@
           <t>5140800948</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:36:57</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44420.90065972223</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6943,10 +6785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:34:29</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44420.89894675926</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7014,10 +6854,8 @@
           <t>5141011221</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:30:30</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44420.89618055556</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7085,10 +6923,8 @@
           <t>5140986188</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:27:43</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44420.89424768519</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7161,10 +6997,8 @@
           <t>5139198337</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:20:10</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44420.88900462963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7232,10 +7066,8 @@
           <t>5139663830</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:17:29</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44420.8871412037</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7307,10 +7139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:16:28</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44420.88643518519</v>
       </c>
       <c r="I94" t="n">
         <v>38</v>
@@ -7386,10 +7216,8 @@
           <t>5140879934</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:15:52</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44420.88601851852</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7453,10 +7281,8 @@
           <t>5140232082</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:13:11</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44420.88415509259</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7520,10 +7346,8 @@
           <t>5140814696</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:08:53</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44420.88116898148</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7591,10 +7415,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:07:52</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44420.88046296296</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7658,10 +7480,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:07:43</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44420.8803587963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7725,10 +7545,8 @@
           <t>5140799048</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:07:03</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44420.87989583334</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7796,10 +7614,8 @@
           <t>5140800948</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:06:42</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44420.87965277778</v>
       </c>
       <c r="I101" t="n">
         <v>2</v>
@@ -7875,10 +7691,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:06:11</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44420.87929398148</v>
       </c>
       <c r="I102" t="n">
         <v>5</v>
@@ -7946,10 +7760,8 @@
           <t>5140756539</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-08-12 21:01:32</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44420.87606481482</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8009,10 +7821,8 @@
           <t>5140597794</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:43:40</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44420.8636574074</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8080,10 +7890,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:43:33</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44420.86357638889</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8163,10 +7971,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:42:02</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44420.86252314815</v>
       </c>
       <c r="I106" t="n">
         <v>30</v>
@@ -8238,10 +8044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:40:01</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44420.86112268519</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8309,10 +8113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:39:34</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44420.86081018519</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8376,10 +8178,8 @@
           <t>5138786411</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:38:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44420.86</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8447,10 +8247,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:37:34</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44420.8594212963</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8514,10 +8312,8 @@
           <t>5140437834</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:25:35</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44420.85109953704</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8593,10 +8389,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:22:45</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44420.84913194444</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8660,10 +8454,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:58</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44420.84581018519</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8739,10 +8531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:17:46</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44420.84567129629</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8806,10 +8596,8 @@
           <t>5140324658</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:13:01</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44420.84237268518</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8881,10 +8669,8 @@
           <t>5140232082</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:12:07</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44420.84174768518</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8948,10 +8734,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:11:30</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44420.84131944444</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9027,10 +8811,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:10:56</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44420.84092592593</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9094,10 +8876,8 @@
           <t>5140310216</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:10:46</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44420.84081018518</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9169,10 +8949,8 @@
           <t>5140299512</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:10:32</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44420.84064814815</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9244,10 +9022,8 @@
           <t>5140305823</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:09:44</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44420.8400925926</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9319,10 +9095,8 @@
           <t>5140232082</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:09:19</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44420.83980324074</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9386,10 +9160,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:08:23</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44420.8391550926</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9461,10 +9233,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:03:21</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44420.83565972222</v>
       </c>
       <c r="I124" t="n">
         <v>3</v>
@@ -9528,10 +9298,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:03:17</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44420.83561342592</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9598,10 +9366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:03:08</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44420.83550925926</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9669,10 +9435,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:03:03</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44420.83545138889</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9736,10 +9500,8 @@
           <t>5140240198</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:02:38</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44420.83516203704</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9803,10 +9565,8 @@
           <t>5140232082</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:02:20</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44420.83495370371</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9870,10 +9630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:00:11</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44420.83346064815</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9937,10 +9695,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-08-12 20:00:05</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44420.83339120371</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10008,10 +9764,8 @@
           <t>5140205466</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:58:55</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44420.83258101852</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10087,10 +9841,8 @@
           <t>5140177682</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:56:36</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44420.83097222223</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10154,10 +9906,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:55:31</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44420.83021990741</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10221,10 +9971,8 @@
           <t>5139151918</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:53:05</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44420.82853009259</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10288,10 +10036,8 @@
           <t>5140144224</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:52:47</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44420.82832175926</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10355,10 +10101,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:52:10</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44420.82789351852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10430,10 +10174,8 @@
           <t>5140137109</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:51:49</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44420.82765046296</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10497,10 +10239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:45:42</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44420.82340277778</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10565,10 +10305,8 @@
           <t>5139151918</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:44:46</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44420.82275462963</v>
       </c>
       <c r="I140" t="n">
         <v>3</v>
@@ -10644,10 +10382,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:43:15</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44420.82170138889</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10723,10 +10459,8 @@
           <t>5140023504</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:39:43</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44420.81924768518</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10790,10 +10524,8 @@
           <t>5140022888</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:39:31</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44420.8191087963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10869,10 +10601,8 @@
           <t>5140020250</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:38:41</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44420.81853009259</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10944,10 +10674,8 @@
           <t>5138786411</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:38:18</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44420.81826388889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11011,10 +10739,8 @@
           <t>5139663830</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:37:57</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44420.81802083334</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11090,10 +10816,8 @@
           <t>5139995001</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:35:52</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44420.81657407407</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11161,10 +10885,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:35:51</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44420.8165625</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11228,10 +10950,8 @@
           <t>5138786411</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:35:12</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44420.81611111111</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11299,10 +11019,8 @@
           <t>5139964555</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:33:31</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44420.81494212963</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11374,10 +11092,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:33:08</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44420.81467592593</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11441,10 +11157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:29:36</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44420.81222222222</v>
       </c>
       <c r="I152" t="n">
         <v>7</v>
@@ -11520,10 +11234,8 @@
           <t>5139896459</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:25:54</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44420.80965277777</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11599,10 +11311,8 @@
           <t>5139896459</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:25:09</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44420.80913194444</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11678,10 +11388,8 @@
           <t>5139900441</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:25:08</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44420.80912037037</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11757,10 +11465,8 @@
           <t>5139867297</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:21:42</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44420.80673611111</v>
       </c>
       <c r="I156" t="n">
         <v>2</v>
@@ -11836,10 +11542,8 @@
           <t>5139854396</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:20:23</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44420.80582175926</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11915,10 +11619,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:19:22</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44420.80511574074</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11986,10 +11688,8 @@
           <t>5139757563</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:18:06</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44420.80423611111</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12065,10 +11765,8 @@
           <t>5139336230</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:17:50</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44420.80405092592</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -12140,10 +11838,8 @@
           <t>5139529816</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:17:38</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44420.80391203704</v>
       </c>
       <c r="I161" t="n">
         <v>6</v>
@@ -12215,10 +11911,8 @@
           <t>5139526773</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:17:29</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44420.80380787037</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12294,10 +11988,8 @@
           <t>5139757563</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:17:06</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44420.80354166667</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12373,10 +12065,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:15:40</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44420.8025462963</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12444,10 +12134,8 @@
           <t>5139663830</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:14:33</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44420.80177083334</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12515,10 +12203,8 @@
           <t>5139795802</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:13:47</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44420.80123842593</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12590,10 +12276,8 @@
           <t>5139529816</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:12:50</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44420.8005787037</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12665,10 +12349,8 @@
           <t>5139764689</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:11:33</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44420.7996875</v>
       </c>
       <c r="I168" t="n">
         <v>4</v>
@@ -12736,10 +12418,8 @@
           <t>5139757563</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:10:22</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44420.79886574074</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12815,10 +12495,8 @@
           <t>5139756485</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:10:02</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44420.79863425926</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12894,10 +12572,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:09:53</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44420.79853009259</v>
       </c>
       <c r="I171" t="n">
         <v>1</v>
@@ -12969,10 +12645,8 @@
           <t>5139526773</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:09:27</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44420.79822916666</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13036,10 +12710,8 @@
           <t>5139753229</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:09:23</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44420.79818287037</v>
       </c>
       <c r="I173" t="n">
         <v>3</v>
@@ -13107,10 +12779,8 @@
           <t>5139526773</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:09:05</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44420.79797453704</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13174,10 +12844,8 @@
           <t>5139747294</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:08:54</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44420.79784722222</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13241,10 +12909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:08:25</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44420.79751157408</v>
       </c>
       <c r="I176" t="n">
         <v>2</v>
@@ -13312,10 +12978,8 @@
           <t>5139526773</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:07:04</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44420.79657407408</v>
       </c>
       <c r="I177" t="n">
         <v>1</v>
@@ -13391,10 +13055,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:06:56</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44420.79648148148</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
@@ -13470,10 +13132,8 @@
           <t>5139188511</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:06:46</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44420.79636574074</v>
       </c>
       <c r="I179" t="n">
         <v>1</v>
@@ -13541,10 +13201,8 @@
           <t>5139188511</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:06:27</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44420.79614583333</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13612,10 +13270,8 @@
           <t>5139151918</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:06:23</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44420.79609953704</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13675,10 +13331,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:05:52</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44420.79574074074</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13754,10 +13408,8 @@
           <t>5138786411</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:05:39</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44420.79559027778</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13834,10 +13486,8 @@
           <t>5139151918</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:05:35</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44420.79554398148</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -13905,10 +13555,8 @@
           <t>5138721461</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:05:20</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44420.79537037037</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13980,10 +13628,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:04:04</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44420.79449074074</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14059,10 +13705,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:03:57</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44420.79440972222</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14138,10 +13782,8 @@
           <t>5139686228</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:02:19</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44420.79327546297</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14220,10 +13862,8 @@
           <t>5139680552</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:01:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44420.79263888889</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14299,10 +13939,8 @@
           <t>5139351071</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:01:14</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44420.79252314815</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14378,10 +14016,8 @@
           <t>5139663830</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-08-12 19:00:27</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44420.79197916666</v>
       </c>
       <c r="I191" t="n">
         <v>2</v>
@@ -14449,10 +14085,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:59:32</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44420.79134259259</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14525,10 +14159,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:58:58</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44420.79094907407</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14588,10 +14220,8 @@
           <t>5139351071</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:58:55</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44420.79091435186</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14669,10 +14299,8 @@
           <t>5138833964</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:58:33</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44420.79065972222</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14736,10 +14364,8 @@
           <t>5139526773</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:58:05</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44420.79033564815</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14803,10 +14429,8 @@
           <t>5138833964</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:56:10</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44420.78900462963</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14882,10 +14506,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:55:04</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44420.78824074074</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14953,10 +14575,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:54:52</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44420.78810185185</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15028,10 +14648,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:53:31</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44420.78716435185</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15108,10 +14726,8 @@
           <t>5139602101</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:52:57</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44420.78677083334</v>
       </c>
       <c r="I201" t="n">
         <v>10</v>
@@ -15187,10 +14803,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:52:28</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44420.78643518518</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15250,10 +14864,8 @@
           <t>5139065335</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:50:10</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44420.78483796296</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15313,10 +14925,8 @@
           <t>5138944801</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:49:38</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44420.7844675926</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15376,10 +14986,8 @@
           <t>5139570281</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:48:59</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44420.7840162037</v>
       </c>
       <c r="I205" t="n">
         <v>1</v>
@@ -15455,10 +15063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:48:58</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44420.78400462963</v>
       </c>
       <c r="I206" t="n">
         <v>4</v>
@@ -15530,10 +15136,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:48:52</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44420.78393518519</v>
       </c>
       <c r="I207" t="n">
         <v>2</v>
@@ -15605,10 +15209,8 @@
           <t>5139553504</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:48:18</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44420.78354166666</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15672,10 +15274,8 @@
           <t>5139552336</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:47:55</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44420.78327546296</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15751,10 +15351,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:46:41</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44420.78241898148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15830,10 +15428,8 @@
           <t>5138909000</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:46:12</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44420.78208333333</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15893,10 +15489,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:45:35</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44420.78165509259</v>
       </c>
       <c r="I212" t="n">
         <v>1</v>
@@ -15964,10 +15558,8 @@
           <t>5139529816</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:45:29</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44420.78158564815</v>
       </c>
       <c r="I213" t="n">
         <v>5</v>
@@ -16039,10 +15631,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:45:14</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44420.78141203704</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16110,10 +15700,8 @@
           <t>5139526773</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:44:29</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44420.78089120371</v>
       </c>
       <c r="I215" t="n">
         <v>1</v>
@@ -16189,10 +15777,8 @@
           <t>5139210195</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:44:27</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44420.78086805555</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16253,10 +15839,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:44:19</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44420.78077546296</v>
       </c>
       <c r="I217" t="n">
         <v>4</v>
@@ -16320,10 +15904,8 @@
           <t>5139275598</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:44:02</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44420.78057870371</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16383,10 +15965,8 @@
           <t>5139076176</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:44:01</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44420.78056712963</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16459,10 +16039,8 @@
           <t>5139514412</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:43:40</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44420.78032407408</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16534,10 +16112,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:43:21</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44420.78010416667</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16605,10 +16181,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:43:11</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44420.77998842593</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16676,10 +16250,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:43:03</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44420.77989583334</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16755,10 +16327,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:43:01</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44420.77987268518</v>
       </c>
       <c r="I224" t="n">
         <v>3</v>
@@ -16826,10 +16396,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:42:33</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44420.77954861111</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -16901,10 +16469,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:40:49</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44420.7783449074</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16972,10 +16538,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:40:08</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44420.77787037037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17051,10 +16615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:39:11</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44420.77721064815</v>
       </c>
       <c r="I228" t="n">
         <v>2</v>
@@ -17130,10 +16692,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:38:56</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44420.77703703703</v>
       </c>
       <c r="I229" t="n">
         <v>4</v>
@@ -17197,10 +16757,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:38:35</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44420.77679398148</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17260,10 +16818,8 @@
           <t>5139459121</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:37:42</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44420.77618055556</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17331,10 +16887,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:37:40</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44420.77615740741</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17410,10 +16964,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:36:24</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44420.77527777778</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17481,10 +17033,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:35:46</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44420.77483796296</v>
       </c>
       <c r="I234" t="n">
         <v>6</v>
@@ -17560,10 +17110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:32:29</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44420.77255787037</v>
       </c>
       <c r="I235" t="n">
         <v>2</v>
@@ -17627,10 +17175,8 @@
           <t>5139212132</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:31:22</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44420.77178240741</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17703,10 +17249,8 @@
           <t>5139407057</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:30:42</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44420.77131944444</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17774,10 +17318,8 @@
           <t>5138700717</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:29:58</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44420.77081018518</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17845,10 +17387,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:28:31</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44420.76980324074</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17916,10 +17456,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:27:48</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44420.76930555556</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17987,10 +17525,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:25:30</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44420.76770833333</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18054,10 +17590,8 @@
           <t>5139360366</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:25:02</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44420.76738425926</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18121,10 +17655,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:24:55</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44420.76730324074</v>
       </c>
       <c r="I243" t="n">
         <v>4</v>
@@ -18192,10 +17724,8 @@
           <t>5139175432</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:24:33</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44420.76704861111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18271,10 +17801,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:24:24</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44420.76694444445</v>
       </c>
       <c r="I245" t="n">
         <v>5</v>
@@ -18342,10 +17870,8 @@
           <t>5139351071</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:24:20</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44420.76689814815</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18413,10 +17939,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:23:45</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44420.76649305555</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18484,10 +18008,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:23:33</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44420.76635416667</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18563,10 +18085,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:23:14</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44420.76613425926</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18634,10 +18154,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:23:02</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44420.76599537037</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18697,10 +18215,8 @@
           <t>5139336230</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:22:55</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44420.76591435185</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18768,10 +18284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:22:42</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44420.76576388889</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18835,10 +18349,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:22:02</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44420.76530092592</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18914,10 +18426,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:21:57</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44420.76524305555</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18994,10 +18504,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:21:22</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44420.76483796296</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19057,10 +18565,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:21:11</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44420.76471064815</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -19128,10 +18634,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:21:05</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44420.76464120371</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19195,10 +18699,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:19:29</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44420.76353009259</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19266,10 +18768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:19:24</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44420.76347222222</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19330,10 +18830,8 @@
           <t>5139305281</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:19:23</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44420.76346064815</v>
       </c>
       <c r="I260" t="n">
         <v>4</v>
@@ -19401,10 +18899,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:19:15</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44420.76336805556</v>
       </c>
       <c r="I261" t="n">
         <v>8</v>
@@ -19473,10 +18969,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:19:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44420.76336805556</v>
       </c>
       <c r="I262" t="n">
         <v>7</v>
@@ -19544,10 +19038,8 @@
           <t>5139300246</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:18:06</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44420.76256944444</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19623,10 +19115,8 @@
           <t>5139288403</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:17:31</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44420.76216435185</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19686,10 +19176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:17:30</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44420.76215277778</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19765,10 +19253,8 @@
           <t>5139286389</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:16:54</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44420.76173611111</v>
       </c>
       <c r="I266" t="n">
         <v>2</v>
@@ -19844,10 +19330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:16:43</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44420.7616087963</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19915,10 +19399,8 @@
           <t>5139276040</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:16:00</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44420.76111111111</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19994,10 +19476,8 @@
           <t>5139275598</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:15:50</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44420.76099537037</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20057,10 +19537,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:15:42</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44420.76090277778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20120,10 +19598,8 @@
           <t>5139264850</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:15:34</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44420.76081018519</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20199,10 +19675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:15:01</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44420.76042824074</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20274,10 +19748,8 @@
           <t>5139260635</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:14:01</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44420.75973379629</v>
       </c>
       <c r="I273" t="n">
         <v>3</v>
@@ -20345,10 +19817,8 @@
           <t>5139221187</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:13:16</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44420.75921296296</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20416,10 +19886,8 @@
           <t>5139248139</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:12:58</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44420.75900462963</v>
       </c>
       <c r="I275" t="n">
         <v>1</v>
@@ -20495,10 +19963,8 @@
           <t>5139239360</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:12:51</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44420.75892361111</v>
       </c>
       <c r="I276" t="n">
         <v>2</v>
@@ -20574,10 +20040,8 @@
           <t>5138997805</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:12:36</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44420.75875</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20653,10 +20117,8 @@
           <t>5138721461</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:12:06</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44420.75840277778</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20732,10 +20194,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:12:00</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44420.75833333333</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20799,10 +20259,8 @@
           <t>5139229618</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:11:47</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44420.75818287037</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20870,10 +20328,8 @@
           <t>5139110007</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:11:43</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44420.75813657408</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20949,10 +20405,8 @@
           <t>5139210195</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:11:16</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44420.75782407408</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -21020,10 +20474,8 @@
           <t>5139226647</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:10:42</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44420.75743055555</v>
       </c>
       <c r="I283" t="n">
         <v>2</v>
@@ -21099,10 +20551,8 @@
           <t>5139222551</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:10:38</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44420.75738425926</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21170,10 +20620,8 @@
           <t>5139212132</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:10:36</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44420.75736111111</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21237,10 +20685,8 @@
           <t>5139221187</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:10:11</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44420.75707175926</v>
       </c>
       <c r="I286" t="n">
         <v>17</v>
@@ -21316,10 +20762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:09:38</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44420.75668981481</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21383,10 +20827,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:09:30</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44420.75659722222</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21450,10 +20892,8 @@
           <t>5139212132</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:09:04</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44420.7562962963</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21526,10 +20966,8 @@
           <t>5139047174</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:08:42</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44420.75604166667</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21605,10 +21043,8 @@
           <t>5139202984</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:08:30</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44420.75590277778</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -21684,10 +21120,8 @@
           <t>5139210195</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:08:22</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44420.75581018518</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21763,10 +21197,8 @@
           <t>5139202272</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:08:17</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44420.75575231481</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21842,10 +21274,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:08:13</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44420.75570601852</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21913,10 +21343,8 @@
           <t>5139198337</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:07:36</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44420.75527777777</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21980,10 +21408,8 @@
           <t>5139198195</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:07:34</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44420.75525462963</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -22043,10 +21469,8 @@
           <t>5139197934</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:07:29</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44420.75519675926</v>
       </c>
       <c r="I297" t="n">
         <v>5</v>
@@ -22122,10 +21546,8 @@
           <t>5139189026</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:07:18</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44420.75506944444</v>
       </c>
       <c r="I298" t="n">
         <v>1</v>
@@ -22187,10 +21609,8 @@
           <t>5139188511</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:07:09</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44420.75496527777</v>
       </c>
       <c r="I299" t="n">
         <v>3</v>
@@ -22258,10 +21678,8 @@
           <t>5139184687</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:06:23</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44420.75443287037</v>
       </c>
       <c r="I300" t="n">
         <v>1</v>
@@ -22329,10 +21747,8 @@
           <t>5139175432</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:04:46</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44420.75331018519</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22410,10 +21826,8 @@
           <t>5139158647</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:04:06</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44420.75284722223</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22489,10 +21903,8 @@
           <t>5138909000</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:04:01</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44420.75278935185</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22560,10 +21972,8 @@
           <t>5139162845</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:03:53</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44420.75269675926</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22639,10 +22049,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:03:50</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44420.75266203703</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22714,10 +22122,8 @@
           <t>5139166451</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:03:37</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44420.75251157407</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22789,10 +22195,8 @@
           <t>5139152473</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:03:32</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44420.7524537037</v>
       </c>
       <c r="I307" t="n">
         <v>1</v>
@@ -22870,10 +22274,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:03:11</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44420.75221064815</v>
       </c>
       <c r="I308" t="n">
         <v>96</v>
@@ -22941,10 +22343,8 @@
           <t>5139154843</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:02:58</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44420.75206018519</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23016,10 +22416,8 @@
           <t>5139148425</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:02:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44420.75179398148</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23083,10 +22481,8 @@
           <t>5139152473</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:02:16</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44420.75157407407</v>
       </c>
       <c r="I311" t="n">
         <v>18</v>
@@ -23154,10 +22550,8 @@
           <t>5139080768</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:02:11</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44420.7515162037</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23229,10 +22623,8 @@
           <t>5139151918</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:02:06</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44420.75145833333</v>
       </c>
       <c r="I313" t="n">
         <v>1</v>
@@ -23300,10 +22692,8 @@
           <t>5139151081</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:01:52</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44420.75129629629</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23371,10 +22761,8 @@
           <t>5139141712</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:01:34</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44420.75108796296</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23442,10 +22830,8 @@
           <t>5139133822</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:01:06</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44420.75076388889</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23517,10 +22903,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:00:45</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44420.75052083333</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23592,10 +22976,8 @@
           <t>5139136822</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:00:40</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44420.75046296296</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23667,10 +23049,8 @@
           <t>5139084619</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:00:39</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44420.75045138889</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23734,10 +23114,8 @@
           <t>5139131966</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:00:30</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44420.75034722222</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23813,10 +23191,8 @@
           <t>5139136101</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:00:26</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44420.75030092592</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23892,10 +23268,8 @@
           <t>5139135782</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-08-12 18:00:20</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44420.75023148148</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23971,10 +23345,8 @@
           <t>5139127319</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:59:56</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44420.7499537037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24050,10 +23422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:59:34</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44420.74969907408</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -24117,10 +23487,8 @@
           <t>5139119182</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:59:30</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44420.74965277778</v>
       </c>
       <c r="I325" t="n">
         <v>1</v>
@@ -24196,10 +23564,8 @@
           <t>5139117916</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:59:02</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44420.74932870371</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24263,10 +23629,8 @@
           <t>5139114893</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:58:58</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44420.74928240741</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24342,10 +23706,8 @@
           <t>5139114822</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:58:57</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44420.74927083333</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24417,10 +23779,8 @@
           <t>5139120911</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:58:47</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44420.74915509259</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24496,10 +23856,8 @@
           <t>5139120707</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:58:43</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44420.7491087963</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24575,10 +23933,8 @@
           <t>5139092636</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:58:40</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44420.74907407408</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24656,10 +24012,8 @@
           <t>5139111774</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:58:23</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44420.74887731481</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24736,10 +24090,8 @@
           <t>5139112602</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:58:05</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44420.74866898148</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24803,10 +24155,8 @@
           <t>5139112340</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:58</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44420.74858796296</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24870,10 +24220,8 @@
           <t>5139112203</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:55</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44420.74855324074</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24938,10 +24286,8 @@
           <t>5139084619</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:54</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44420.74854166667</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -25017,10 +24363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:50</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44420.74849537037</v>
       </c>
       <c r="I337" t="n">
         <v>16</v>
@@ -25088,10 +24432,8 @@
           <t>5139104533</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:48</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44420.74847222222</v>
       </c>
       <c r="I338" t="n">
         <v>6</v>
@@ -25167,10 +24509,8 @@
           <t>5139111774</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:43</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44420.74841435185</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -25238,10 +24578,8 @@
           <t>5139080768</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:39</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44420.74836805555</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25317,10 +24655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:33</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44420.74829861111</v>
       </c>
       <c r="I341" t="n">
         <v>4</v>
@@ -25392,10 +24728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:30</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44420.74826388889</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25460,10 +24794,8 @@
           <t>5139103489</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:25</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44420.74820601852</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25535,10 +24867,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:08</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44420.74800925926</v>
       </c>
       <c r="I344" t="n">
         <v>36</v>
@@ -25610,10 +24940,8 @@
           <t>5138700717</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:04</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44420.74796296296</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25689,10 +25017,8 @@
           <t>5139105729</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:04</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44420.74796296296</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25756,10 +25082,8 @@
           <t>5139110007</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:57:02</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44420.74793981481</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25835,10 +25159,8 @@
           <t>5139099770</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:56:45</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44420.74774305556</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25914,10 +25236,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:56:30</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44420.74756944444</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25985,10 +25305,8 @@
           <t>5139093373</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:56:24</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44420.7475</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26066,10 +25384,8 @@
           <t>5139093299</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:56:22</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44420.74747685185</v>
       </c>
       <c r="I351" t="n">
         <v>1</v>
@@ -26137,10 +25453,8 @@
           <t>5139100340</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:56:16</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44420.74740740741</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26216,10 +25530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:56:13</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44420.74737268518</v>
       </c>
       <c r="I353" t="n">
         <v>208</v>
@@ -26295,10 +25607,8 @@
           <t>5139092636</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:56:06</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44420.74729166667</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26366,10 +25676,8 @@
           <t>5138944801</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:55:55</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44420.74716435185</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26433,10 +25741,8 @@
           <t>5139089239</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:55:52</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44420.74712962963</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26512,10 +25818,8 @@
           <t>5139089188</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:55:51</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44420.74711805556</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26591,10 +25895,8 @@
           <t>5139096902</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:55:50</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44420.74710648148</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26666,10 +25968,8 @@
           <t>5139084619</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:55:06</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44420.74659722222</v>
       </c>
       <c r="I359" t="n">
         <v>2</v>
@@ -26733,10 +26033,8 @@
           <t>5138965561</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:55:03</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44420.7465625</v>
       </c>
       <c r="I360" t="n">
         <v>1</v>
@@ -26796,10 +26094,8 @@
           <t>5139086858</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:55:01</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44420.74653935185</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26867,10 +26163,8 @@
           <t>5138909000</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:54:58</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44420.74650462963</v>
       </c>
       <c r="I362" t="n">
         <v>1</v>
@@ -26938,10 +26232,8 @@
           <t>5139083309</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:54:41</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44420.74630787037</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -27017,10 +26309,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:54:37</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44420.74626157407</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -27084,10 +26374,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:54:30</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44420.74618055556</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27151,10 +26439,8 @@
           <t>5139085032</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:54:23</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44420.74609953703</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -27214,10 +26500,8 @@
           <t>5139081925</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:54:14</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44420.74599537037</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27285,10 +26569,8 @@
           <t>5139077402</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:54:02</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44420.74585648148</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27360,10 +26642,8 @@
           <t>5139080768</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:53:51</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44420.74572916667</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27431,10 +26711,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:53:34</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44420.74553240741</v>
       </c>
       <c r="I370" t="n">
         <v>3</v>
@@ -27494,10 +26772,8 @@
           <t>5139076176</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:53:34</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44420.74553240741</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27565,10 +26841,8 @@
           <t>5139075450</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:53:16</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44420.74532407407</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27640,10 +26914,8 @@
           <t>5139064936</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:53:04</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44420.74518518519</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27707,10 +26979,8 @@
           <t>5139068271</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:53:03</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44420.74517361111</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27770,10 +27040,8 @@
           <t>5139067445</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:52:47</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44420.74498842593</v>
       </c>
       <c r="I375" t="n">
         <v>0</v>
@@ -27841,10 +27109,8 @@
           <t>5139063484</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:52:30</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44420.74479166666</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27912,10 +27178,8 @@
           <t>5139063317</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:52:26</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44420.74474537037</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27983,10 +27247,8 @@
           <t>5139059380</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:52:21</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44420.7446875</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28062,10 +27324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:52:13</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44420.74459490741</v>
       </c>
       <c r="I379" t="n">
         <v>6</v>
@@ -28133,10 +27393,8 @@
           <t>5139058703</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:52:06</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44420.74451388889</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28208,10 +27466,8 @@
           <t>5139065335</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:52:06</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44420.74451388889</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28275,10 +27531,8 @@
           <t>5139047174</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:51:45</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44420.74427083333</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28350,10 +27604,8 @@
           <t>5139061503</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:51:43</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44420.74424768519</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28417,10 +27669,8 @@
           <t>5139053582</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:51:32</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44420.74412037037</v>
       </c>
       <c r="I384" t="n">
         <v>0</v>
@@ -28484,10 +27734,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:51:20</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44420.74398148148</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28563,10 +27811,8 @@
           <t>5139051736</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:56</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44420.7437037037</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28634,10 +27880,8 @@
           <t>5139051279</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:47</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44420.74359953704</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28714,10 +27958,8 @@
           <t>5138826134</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:42</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44420.74354166666</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28785,10 +28027,8 @@
           <t>5139044531</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:37</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44420.74348379629</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28860,10 +28100,8 @@
           <t>5139050679</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:36</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44420.74347222222</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28939,10 +28177,8 @@
           <t>5139039635</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:16</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44420.74324074074</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -29006,10 +28242,8 @@
           <t>5139047736</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:15</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44420.74322916667</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29081,10 +28315,8 @@
           <t>5139014304</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:09</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44420.74315972222</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -29152,10 +28384,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:07</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44420.74313657408</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29227,10 +28457,8 @@
           <t>5139047174</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:02</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44420.7430787037</v>
       </c>
       <c r="I395" t="n">
         <v>7</v>
@@ -29306,10 +28534,8 @@
           <t>5139042820</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:50:00</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44420.74305555555</v>
       </c>
       <c r="I396" t="n">
         <v>0</v>
@@ -29377,10 +28603,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:49:51</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44420.74295138889</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29456,10 +28680,8 @@
           <t>5139046452</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:49:45</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44420.74288194445</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29527,10 +28749,8 @@
           <t>5139035764</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:49:00</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44420.74236111111</v>
       </c>
       <c r="I399" t="n">
         <v>5</v>
@@ -29598,10 +28818,8 @@
           <t>5139035349</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:48:52</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44420.74226851852</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29665,10 +28883,8 @@
           <t>5139034029</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:48:48</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44420.74222222222</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29728,10 +28944,8 @@
           <t>5139024496</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:48:35</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44420.74207175926</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29799,10 +29013,8 @@
           <t>5139032860</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:48:21</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44420.74190972222</v>
       </c>
       <c r="I403" t="n">
         <v>1</v>
@@ -29870,10 +29082,8 @@
           <t>5139032165</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:48:04</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44420.74171296296</v>
       </c>
       <c r="I404" t="n">
         <v>3</v>
@@ -29945,10 +29155,8 @@
           <t>5138700717</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:47:40</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44420.74143518518</v>
       </c>
       <c r="I405" t="n">
         <v>2</v>
@@ -30024,10 +29232,8 @@
           <t>5139030546</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:47:26</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44420.74127314815</v>
       </c>
       <c r="I406" t="n">
         <v>1</v>
@@ -30087,10 +29293,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:47:16</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44420.74115740741</v>
       </c>
       <c r="I407" t="n">
         <v>1</v>
@@ -30158,10 +29362,8 @@
           <t>5139009877</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:47:09</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44420.74107638889</v>
       </c>
       <c r="I408" t="n">
         <v>3</v>
@@ -30229,10 +29431,8 @@
           <t>5139020151</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:47:08</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44420.74106481481</v>
       </c>
       <c r="I409" t="n">
         <v>1</v>
@@ -30296,10 +29496,8 @@
           <t>5139014978</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:47:06</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44420.74104166667</v>
       </c>
       <c r="I410" t="n">
         <v>1</v>
@@ -30367,10 +29565,8 @@
           <t>5139014304</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:46:51</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44420.74086805555</v>
       </c>
       <c r="I411" t="n">
         <v>4</v>
@@ -30438,10 +29634,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:46:50</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44420.74085648148</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30517,10 +29711,8 @@
           <t>5139008598</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:46:40</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44420.74074074074</v>
       </c>
       <c r="I413" t="n">
         <v>3</v>
@@ -30596,10 +29788,8 @@
           <t>5139013694</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:46:37</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44420.74070601852</v>
       </c>
       <c r="I414" t="n">
         <v>0</v>
@@ -30668,10 +29858,8 @@
           <t>5139016610</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:45:58</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44420.74025462963</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30743,10 +29931,8 @@
           <t>5139016270</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:45:52</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44420.74018518518</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30814,10 +30000,8 @@
           <t>5139015996</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:45:47</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44420.74012731481</v>
       </c>
       <c r="I417" t="n">
         <v>2</v>
@@ -30881,10 +30065,8 @@
           <t>5139015824</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:45:43</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44420.74008101852</v>
       </c>
       <c r="I418" t="n">
         <v>14</v>
@@ -30952,10 +30134,8 @@
           <t>5139006067</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:45:40</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44420.7400462963</v>
       </c>
       <c r="I419" t="n">
         <v>1</v>
@@ -31027,10 +30207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:57</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44420.73954861111</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -31098,10 +30276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:54</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44420.73951388889</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -31165,10 +30341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:50</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44420.73946759259</v>
       </c>
       <c r="I422" t="n">
         <v>4</v>
@@ -31245,10 +30419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:48</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44420.73944444444</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31324,10 +30496,8 @@
           <t>5138700717</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:45</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44420.73940972222</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -31391,10 +30561,8 @@
           <t>5139002563</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:37</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44420.73931712963</v>
       </c>
       <c r="I425" t="n">
         <v>4</v>
@@ -31462,10 +30630,8 @@
           <t>5138997805</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:25</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44420.73917824074</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31542,10 +30708,8 @@
           <t>5139001758</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:21</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44420.73913194444</v>
       </c>
       <c r="I427" t="n">
         <v>4</v>
@@ -31613,10 +30777,8 @@
           <t>5138992674</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:17</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44420.73908564815</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31692,10 +30854,8 @@
           <t>5138992662</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:44:16</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44420.73907407407</v>
       </c>
       <c r="I429" t="n">
         <v>28</v>
@@ -31763,10 +30923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:43:52</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44420.7387962963</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31843,10 +31001,8 @@
           <t>5138700717</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:43:44</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44420.7387037037</v>
       </c>
       <c r="I431" t="n">
         <v>8</v>
@@ -31914,10 +31070,8 @@
           <t>5138988996</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:43:25</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44420.7384837963</v>
       </c>
       <c r="I432" t="n">
         <v>3</v>
@@ -31993,10 +31147,8 @@
           <t>5138987934</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:43:03</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44420.73822916667</v>
       </c>
       <c r="I433" t="n">
         <v>3</v>
@@ -32060,10 +31212,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:42:59</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44420.73818287037</v>
       </c>
       <c r="I434" t="n">
         <v>5</v>
@@ -32123,10 +31273,8 @@
           <t>5138978457</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:42:35</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44420.7379050926</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32196,10 +31344,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:42:33</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44420.73788194444</v>
       </c>
       <c r="I436" t="n">
         <v>1</v>
@@ -32271,10 +31417,8 @@
           <t>5138986289</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:42:30</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44420.73784722222</v>
       </c>
       <c r="I437" t="n">
         <v>14</v>
@@ -32342,10 +31486,8 @@
           <t>5138964840</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:42:10</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44420.73761574074</v>
       </c>
       <c r="I438" t="n">
         <v>4</v>
@@ -32422,10 +31564,8 @@
           <t>5138975761</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:30</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44420.73715277778</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32485,10 +31625,8 @@
           <t>5138700717</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:28</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44420.73712962963</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32552,10 +31690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:13</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44420.73695601852</v>
       </c>
       <c r="I441" t="n">
         <v>2</v>
@@ -32627,10 +31763,8 @@
           <t>5138975021</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:13</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44420.73695601852</v>
       </c>
       <c r="I442" t="n">
         <v>11</v>
@@ -32706,10 +31840,8 @@
           <t>5138964840</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:09</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44420.73690972223</v>
       </c>
       <c r="I443" t="n">
         <v>18</v>
@@ -32777,10 +31909,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:09</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44420.73690972223</v>
       </c>
       <c r="I444" t="n">
         <v>14</v>
@@ -32848,10 +31978,8 @@
           <t>5138968838</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:03</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44420.73684027778</v>
       </c>
       <c r="I445" t="n">
         <v>2</v>
@@ -32919,10 +32047,8 @@
           <t>5138948771</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:41:02</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44420.7368287037</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32990,10 +32116,8 @@
           <t>5138968409</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:40:54</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44420.73673611111</v>
       </c>
       <c r="I447" t="n">
         <v>3</v>
@@ -33053,10 +32177,8 @@
           <t>5138971190</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:40:48</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44420.73666666666</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33124,10 +32246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:40:44</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44420.73662037037</v>
       </c>
       <c r="I449" t="n">
         <v>4</v>
@@ -33203,10 +32323,8 @@
           <t>5138872725</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:40:38</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44420.73655092593</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33282,10 +32400,8 @@
           <t>5138970202</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:40:28</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44420.73643518519</v>
       </c>
       <c r="I451" t="n">
         <v>1</v>
@@ -33345,10 +32461,8 @@
           <t>5138963028</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:40:26</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44420.73641203704</v>
       </c>
       <c r="I452" t="n">
         <v>1</v>
@@ -33424,10 +32538,8 @@
           <t>5138959552</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:40:15</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44420.73628472222</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33487,10 +32599,8 @@
           <t>5138965642</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:39:52</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44420.73601851852</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33554,10 +32664,8 @@
           <t>5138965561</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:39:50</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44420.73599537037</v>
       </c>
       <c r="I455" t="n">
         <v>11</v>
@@ -33625,10 +32733,8 @@
           <t>5138961559</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:39:50</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44420.73599537037</v>
       </c>
       <c r="I456" t="n">
         <v>2</v>
@@ -33696,10 +32802,8 @@
           <t>5138961195</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:39:42</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44420.73590277778</v>
       </c>
       <c r="I457" t="n">
         <v>3</v>
@@ -33759,10 +32863,8 @@
           <t>5138960936</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:39:36</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44420.73583333333</v>
       </c>
       <c r="I458" t="n">
         <v>0</v>
@@ -33830,10 +32932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:39:34</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44420.73581018519</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33909,10 +33009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:39:09</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44420.73552083333</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33985,10 +33083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:38:47</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44420.7352662037</v>
       </c>
       <c r="I461" t="n">
         <v>27</v>
@@ -34052,10 +33148,8 @@
           <t>5138948771</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:38:44</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44420.73523148148</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34131,10 +33225,8 @@
           <t>5138944801</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:38:38</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44420.73516203704</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34210,10 +33302,8 @@
           <t>5138948072</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:38:27</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44420.73503472222</v>
       </c>
       <c r="I464" t="n">
         <v>3</v>
@@ -34289,10 +33379,8 @@
           <t>5138943640</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:38:13</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44420.73487268519</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34364,10 +33452,8 @@
           <t>5138947200</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:38:07</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44420.73480324074</v>
       </c>
       <c r="I466" t="n">
         <v>2</v>
@@ -34435,10 +33521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:38:06</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44420.73479166667</v>
       </c>
       <c r="I467" t="n">
         <v>8</v>
@@ -34509,10 +33593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:37:53</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44420.7346412037</v>
       </c>
       <c r="I468" t="n">
         <v>1</v>
@@ -34580,10 +33662,8 @@
           <t>5138938451</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:37:08</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44420.73412037037</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34643,10 +33723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:36:16</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44420.73351851852</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34718,10 +33796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:36:12</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44420.73347222222</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34793,10 +33869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:36:12</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44420.73347222222</v>
       </c>
       <c r="I472" t="n">
         <v>3</v>
@@ -34864,10 +33938,8 @@
           <t>5138932019</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:36:04</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44420.73337962963</v>
       </c>
       <c r="I473" t="n">
         <v>3</v>
@@ -34931,10 +34003,8 @@
           <t>5138833964</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:35:45</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44420.73315972222</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34998,10 +34068,8 @@
           <t>5138931039</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:35:41</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44420.73311342593</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35077,10 +34145,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:35:09</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44420.73274305555</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35140,10 +34206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:35:01</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44420.73265046296</v>
       </c>
       <c r="I477" t="n">
         <v>9</v>
@@ -35207,10 +34271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:34:54</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44420.73256944444</v>
       </c>
       <c r="I478" t="n">
         <v>3</v>
@@ -35278,10 +34340,8 @@
           <t>5138917900</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:34:35</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44420.73234953704</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35357,10 +34417,8 @@
           <t>5138912671</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:34:22</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44420.73219907407</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35428,10 +34486,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:34:14</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44420.73210648148</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35507,10 +34563,8 @@
           <t>5138872725</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:33:55</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44420.73188657407</v>
       </c>
       <c r="I482" t="n">
         <v>3</v>
@@ -35578,10 +34632,8 @@
           <t>5138915258</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:33:41</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44420.73172453704</v>
       </c>
       <c r="I483" t="n">
         <v>2</v>
@@ -35649,10 +34701,8 @@
           <t>5138909000</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:33:38</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44420.73168981481</v>
       </c>
       <c r="I484" t="n">
         <v>2</v>
@@ -35724,10 +34774,8 @@
           <t>5138904753</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:33:31</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44420.7316087963</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35796,10 +34844,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:33:18</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44420.73145833334</v>
       </c>
       <c r="I486" t="n">
         <v>3</v>
@@ -35875,10 +34921,8 @@
           <t>5138902672</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:32:49</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44420.73112268518</v>
       </c>
       <c r="I487" t="n">
         <v>4</v>
@@ -35950,10 +34994,8 @@
           <t>5138898080</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:32:33</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44420.7309375</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36017,10 +35059,8 @@
           <t>5138897921</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:32:29</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44420.7308912037</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36098,10 +35138,8 @@
           <t>5138897626</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:32:22</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44420.73081018519</v>
       </c>
       <c r="I490" t="n">
         <v>2</v>
@@ -36181,10 +35219,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:32:10</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44420.7306712963</v>
       </c>
       <c r="I491" t="n">
         <v>10</v>
@@ -36248,10 +35284,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:32:07</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44420.73063657407</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36327,10 +35361,8 @@
           <t>5138896502</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:31:55</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44420.73049768519</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36406,10 +35438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:31:19</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44420.73008101852</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36477,10 +35507,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:31:11</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44420.72998842593</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36544,10 +35572,8 @@
           <t>5138884302</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:31:01</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44420.72987268519</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36623,10 +35649,8 @@
           <t>5138872725</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:30:33</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44420.72954861111</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36702,10 +35726,8 @@
           <t>5138879207</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:30:00</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44420.72916666666</v>
       </c>
       <c r="I498" t="n">
         <v>2</v>
@@ -36782,10 +35804,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:29:48</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44420.72902777778</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -36857,10 +35877,8 @@
           <t>5138878447</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:29:45</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44420.72899305556</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36924,10 +35942,8 @@
           <t>5138853649</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:29:43</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44420.72896990741</v>
       </c>
       <c r="I501" t="n">
         <v>5</v>
@@ -36995,10 +36011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:29:01</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44420.72848379629</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37062,10 +36076,8 @@
           <t>5138863024</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:29:00</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44420.72847222222</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37137,10 +36149,8 @@
           <t>5138875029</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:28:36</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44420.72819444445</v>
       </c>
       <c r="I504" t="n">
         <v>1</v>
@@ -37212,10 +36222,8 @@
           <t>5138863024</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:54</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44420.72770833333</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37283,10 +36291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:46</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44420.72761574074</v>
       </c>
       <c r="I506" t="n">
         <v>1</v>
@@ -37362,10 +36368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:45</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44420.72760416667</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37447,10 +36451,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:33</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44420.72746527778</v>
       </c>
       <c r="I508" t="n">
         <v>72</v>
@@ -37518,10 +36520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:30</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44420.72743055555</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37589,10 +36589,8 @@
           <t>5138857492</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:28</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44420.72740740741</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37679,10 +36677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:23</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44420.72734953704</v>
       </c>
       <c r="I511" t="n">
         <v>5</v>
@@ -37750,10 +36746,8 @@
           <t>5138856836</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:27:13</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44420.72723379629</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37821,10 +36815,8 @@
           <t>5138840101</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:26:51</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44420.72697916667</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37896,10 +36888,8 @@
           <t>5138853649</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:26:44</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44420.72689814815</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -37976,10 +36966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:26:26</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44420.72668981482</v>
       </c>
       <c r="I515" t="n">
         <v>0</v>
@@ -38051,10 +37039,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:26:09</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44420.72649305555</v>
       </c>
       <c r="I516" t="n">
         <v>32</v>
@@ -38122,10 +37108,8 @@
           <t>5138843640</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:26:02</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44420.72641203704</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -38201,10 +37185,8 @@
           <t>5138836124</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:25:28</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44420.72601851852</v>
       </c>
       <c r="I518" t="n">
         <v>11</v>
@@ -38272,10 +37254,8 @@
           <t>5138833964</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:24:54</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44420.725625</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38343,10 +37323,8 @@
           <t>5138840101</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:24:42</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44420.72548611111</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38422,10 +37400,8 @@
           <t>5138837632</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:24:23</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44420.72526620371</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38489,10 +37465,8 @@
           <t>5138836124</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:54</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44420.72493055555</v>
       </c>
       <c r="I522" t="n">
         <v>16</v>
@@ -38568,10 +37542,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:50</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44420.72488425926</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38647,10 +37619,8 @@
           <t>5138835607</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:43</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44420.72480324074</v>
       </c>
       <c r="I524" t="n">
         <v>4</v>
@@ -38722,10 +37692,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:42</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44420.72479166667</v>
       </c>
       <c r="I525" t="n">
         <v>8</v>
@@ -38798,10 +37766,8 @@
           <t>5138824961</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:30</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44420.72465277778</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38869,10 +37835,8 @@
           <t>5138830434</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:29</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44420.72464120371</v>
       </c>
       <c r="I527" t="n">
         <v>3</v>
@@ -38944,10 +37908,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:19</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44420.72452546296</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -39007,10 +37969,8 @@
           <t>5138731979</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:19</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44420.72452546296</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -39082,10 +38042,8 @@
           <t>5138826134</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:13</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44420.72445601852</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -39149,10 +38107,8 @@
           <t>5138825667</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:23:02</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44420.72432870371</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39220,10 +38176,8 @@
           <t>5138818909</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:22:54</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44420.72423611111</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -39287,10 +38241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:22:16</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44420.7237962963</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39366,10 +38318,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:21:54</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44420.72354166667</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39437,10 +38387,8 @@
           <t>5138713066</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:21:46</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44420.72344907407</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39512,10 +38460,8 @@
           <t>5138815779</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:21:38</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44420.72335648148</v>
       </c>
       <c r="I536" t="n">
         <v>2</v>
@@ -39579,10 +38525,8 @@
           <t>5138776908</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:21:30</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44420.72326388889</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39654,10 +38598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:21:26</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44420.72321759259</v>
       </c>
       <c r="I538" t="n">
         <v>4</v>
@@ -39725,10 +38667,8 @@
           <t>5138776908</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:21:04</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44420.72296296297</v>
       </c>
       <c r="I539" t="n">
         <v>0</v>
@@ -39800,10 +38740,8 @@
           <t>5138794916</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:21:01</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44420.72292824074</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39876,10 +38814,8 @@
           <t>5138806132</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:20:31</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44420.72258101852</v>
       </c>
       <c r="I541" t="n">
         <v>40</v>
@@ -39951,10 +38887,8 @@
           <t>5138805796</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:20:24</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44420.7225</v>
       </c>
       <c r="I542" t="n">
         <v>6</v>
@@ -40027,10 +38961,8 @@
           <t>5138798450</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:20:16</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44420.7224074074</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40106,10 +39038,8 @@
           <t>5138802423</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:20:16</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44420.7224074074</v>
       </c>
       <c r="I544" t="n">
         <v>5</v>
@@ -40177,10 +39107,8 @@
           <t>5138798071</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:20:08</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44420.72231481481</v>
       </c>
       <c r="I545" t="n">
         <v>4</v>
@@ -40240,10 +39168,8 @@
           <t>5138794916</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:20:07</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44420.72230324074</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40319,10 +39245,8 @@
           <t>5138801955</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:20:05</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44420.7222800926</v>
       </c>
       <c r="I547" t="n">
         <v>0</v>
@@ -40390,10 +39314,8 @@
           <t>5138800836</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:19:38</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44420.7219675926</v>
       </c>
       <c r="I548" t="n">
         <v>5</v>
@@ -40461,10 +39383,8 @@
           <t>5138793216</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:19:31</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44420.72188657407</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40536,10 +39456,8 @@
           <t>5138795979</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:19:20</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44420.72175925926</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40611,10 +39529,8 @@
           <t>5138786411</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:19:09</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44420.72163194444</v>
       </c>
       <c r="I551" t="n">
         <v>14</v>
@@ -40674,10 +39590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:19:01</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44420.72153935185</v>
       </c>
       <c r="I552" t="n">
         <v>13</v>
@@ -40753,10 +39667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:18:50</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44420.72141203703</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40816,10 +39728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:18:38</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44420.72127314815</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40887,10 +39797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:18:29</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44420.72116898148</v>
       </c>
       <c r="I555" t="n">
         <v>11</v>
@@ -40966,10 +39874,8 @@
           <t>5138787834</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:18:27</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44420.72114583333</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -41033,10 +39939,8 @@
           <t>5138783300</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:18:20</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44420.72106481482</v>
       </c>
       <c r="I557" t="n">
         <v>4</v>
@@ -41100,10 +40004,8 @@
           <t>5138786725</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:59</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44420.72082175926</v>
       </c>
       <c r="I558" t="n">
         <v>2</v>
@@ -41171,10 +40073,8 @@
           <t>5138776908</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:56</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44420.72078703704</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41246,10 +40146,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:54</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44420.72076388889</v>
       </c>
       <c r="I560" t="n">
         <v>1</v>
@@ -41325,10 +40223,8 @@
           <t>5138786411</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:50</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44420.72071759259</v>
       </c>
       <c r="I561" t="n">
         <v>39</v>
@@ -41396,10 +40292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:48</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44420.72069444445</v>
       </c>
       <c r="I562" t="n">
         <v>1</v>
@@ -41463,10 +40357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:37</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44420.72056712963</v>
       </c>
       <c r="I563" t="n">
         <v>11</v>
@@ -41534,10 +40426,8 @@
           <t>5138776908</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:22</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44420.72039351852</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41609,10 +40499,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:14</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44420.72030092592</v>
       </c>
       <c r="I565" t="n">
         <v>0</v>
@@ -41676,10 +40564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:17:08</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44420.72023148148</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41755,10 +40641,8 @@
           <t>5138763002</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:16:37</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44420.71987268519</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41830,10 +40714,8 @@
           <t>5138773230</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:16:32</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44420.71981481482</v>
       </c>
       <c r="I568" t="n">
         <v>0</v>
@@ -41905,10 +40787,8 @@
           <t>5138768402</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:16:28</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44420.71976851852</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41972,10 +40852,8 @@
           <t>5138763002</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:16:02</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44420.71946759259</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -42051,10 +40929,8 @@
           <t>5138771890</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:59</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44420.71943287037</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42118,10 +40994,8 @@
           <t>5138771684</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:54</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44420.719375</v>
       </c>
       <c r="I572" t="n">
         <v>0</v>
@@ -42193,10 +41067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:32</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44420.71912037037</v>
       </c>
       <c r="I573" t="n">
         <v>0</v>
@@ -42260,10 +41132,8 @@
           <t>5138765989</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:32</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44420.71912037037</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42335,10 +41205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:20</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44420.71898148148</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42410,10 +41278,8 @@
           <t>5138760850</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:18</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44420.71895833333</v>
       </c>
       <c r="I576" t="n">
         <v>1</v>
@@ -42485,10 +41351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:10</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44420.71886574074</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42556,10 +41420,8 @@
           <t>5138760461</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:15:09</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44420.71885416667</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42631,10 +41493,8 @@
           <t>5138713066</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:56</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44420.7187037037</v>
       </c>
       <c r="I579" t="n">
         <v>0</v>
@@ -42706,10 +41566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:51</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44420.71864583333</v>
       </c>
       <c r="I580" t="n">
         <v>1</v>
@@ -42786,10 +41644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:38</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44420.71849537037</v>
       </c>
       <c r="I581" t="n">
         <v>41</v>
@@ -42861,10 +41717,8 @@
           <t>5138748519</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:36</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44420.71847222222</v>
       </c>
       <c r="I582" t="n">
         <v>1</v>
@@ -42940,10 +41794,8 @@
           <t>5138758630</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:31</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44420.71841435185</v>
       </c>
       <c r="I583" t="n">
         <v>0</v>
@@ -43020,10 +41872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:25</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44420.71834490741</v>
       </c>
       <c r="I584" t="n">
         <v>2</v>
@@ -43099,10 +41949,8 @@
           <t>5138752703</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:17</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44420.71825231481</v>
       </c>
       <c r="I585" t="n">
         <v>1</v>
@@ -43174,10 +42022,8 @@
           <t>5138757898</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:16</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44420.71824074074</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -43253,10 +42099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:14</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44420.71821759259</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43320,10 +42164,8 @@
           <t>5138752377</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:14:10</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44420.7181712963</v>
       </c>
       <c r="I588" t="n">
         <v>0</v>
@@ -43395,10 +42237,8 @@
           <t>5138751746</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:56</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44420.71800925926</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43466,10 +42306,8 @@
           <t>5138746577</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:48</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44420.71791666667</v>
       </c>
       <c r="I590" t="n">
         <v>6</v>
@@ -43533,10 +42371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:41</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44420.71783564815</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43612,10 +42448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:32</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44420.71773148148</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43686,10 +42520,8 @@
           <t>5138755655</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:30</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44420.71770833333</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43761,10 +42593,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:21</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44420.71760416667</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
@@ -43833,10 +42663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:19</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44420.71758101852</v>
       </c>
       <c r="I595" t="n">
         <v>7</v>
@@ -43912,10 +42740,8 @@
           <t>5138739840</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:12</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44420.7175</v>
       </c>
       <c r="I596" t="n">
         <v>20</v>
@@ -43992,10 +42818,8 @@
           <t>5138739682</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:08</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44420.71745370371</v>
       </c>
       <c r="I597" t="n">
         <v>2</v>
@@ -44059,10 +42883,8 @@
           <t>5138744596</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:08</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44420.71745370371</v>
       </c>
       <c r="I598" t="n">
         <v>0</v>
@@ -44130,10 +42952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:06</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44420.71743055555</v>
       </c>
       <c r="I599" t="n">
         <v>41</v>
@@ -44205,10 +43025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:13:02</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44420.71738425926</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44284,10 +43102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:12:59</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44420.71734953704</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44363,10 +43179,8 @@
           <t>5138737793</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:12:25</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44420.71695601852</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
@@ -44434,10 +43248,8 @@
           <t>5138732690</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:12:13</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44420.71681712963</v>
       </c>
       <c r="I603" t="n">
         <v>1</v>
@@ -44509,10 +43321,8 @@
           <t>5138736566</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:56</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44420.71662037037</v>
       </c>
       <c r="I604" t="n">
         <v>0</v>
@@ -44580,10 +43390,8 @@
           <t>5138731979</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:56</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44420.71662037037</v>
       </c>
       <c r="I605" t="n">
         <v>4</v>
@@ -44647,10 +43455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:33</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44420.71635416667</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44718,10 +43524,8 @@
           <t>5138729765</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:27</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44420.71628472222</v>
       </c>
       <c r="I607" t="n">
         <v>0</v>
@@ -44789,10 +43593,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:26</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44420.71627314815</v>
       </c>
       <c r="I608" t="n">
         <v>282</v>
@@ -44868,10 +43670,8 @@
           <t>5138713066</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:12</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44420.71611111111</v>
       </c>
       <c r="I609" t="n">
         <v>1</v>
@@ -44943,10 +43743,8 @@
           <t>5138728754</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:07</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44420.71605324074</v>
       </c>
       <c r="I610" t="n">
         <v>24</v>
@@ -45023,10 +43821,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:05</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44420.71603009259</v>
       </c>
       <c r="I611" t="n">
         <v>1</v>
@@ -45090,10 +43886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:11:01</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44420.7159837963</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45161,10 +43955,8 @@
           <t>5138723222</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:10:39</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44420.71572916667</v>
       </c>
       <c r="I613" t="n">
         <v>32</v>
@@ -45236,10 +44028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:10:32</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44420.71564814815</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -45315,10 +44105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:10:28</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44420.71560185185</v>
       </c>
       <c r="I615" t="n">
         <v>0</v>
@@ -45378,10 +44166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:10:23</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44420.71554398148</v>
       </c>
       <c r="I616" t="n">
         <v>0</v>
@@ -45449,10 +44235,8 @@
           <t>5138726328</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:10:16</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44420.71546296297</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45528,10 +44312,8 @@
           <t>5138725810</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:10:04</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44420.71532407407</v>
       </c>
       <c r="I618" t="n">
         <v>1</v>
@@ -45599,10 +44381,8 @@
           <t>5138721667</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:10:04</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44420.71532407407</v>
       </c>
       <c r="I619" t="n">
         <v>2</v>
@@ -45666,10 +44446,8 @@
           <t>5138721461</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:59</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44420.7152662037</v>
       </c>
       <c r="I620" t="n">
         <v>42</v>
@@ -45741,10 +44519,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:40</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44420.7150462963</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45816,10 +44592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:37</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44420.71501157407</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45895,10 +44669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:34</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44420.71497685185</v>
       </c>
       <c r="I623" t="n">
         <v>1</v>
@@ -45962,10 +44734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:32</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44420.7149537037</v>
       </c>
       <c r="I624" t="n">
         <v>1</v>
@@ -46037,10 +44807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:31</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44420.71494212963</v>
       </c>
       <c r="I625" t="n">
         <v>168</v>
@@ -46100,10 +44868,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:30</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44420.71493055556</v>
       </c>
       <c r="I626" t="n">
         <v>0</v>
@@ -46167,10 +44933,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:13</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44420.7147337963</v>
       </c>
       <c r="I627" t="n">
         <v>1</v>
@@ -46246,10 +45010,8 @@
           <t>5138713066</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:06</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44420.71465277778</v>
       </c>
       <c r="I628" t="n">
         <v>1</v>
@@ -46317,10 +45079,8 @@
           <t>5138704793</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:09:00</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44420.71458333333</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46384,10 +45144,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:58</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44420.71456018519</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46455,10 +45213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:55</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44420.71452546296</v>
       </c>
       <c r="I631" t="n">
         <v>1</v>
@@ -46534,10 +45290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:50</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44420.7144675926</v>
       </c>
       <c r="I632" t="n">
         <v>1</v>
@@ -46616,10 +45370,8 @@
           <t>5138712055</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:46</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44420.7144212963</v>
       </c>
       <c r="I633" t="n">
         <v>0</v>
@@ -46695,10 +45447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:41</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44420.71436342593</v>
       </c>
       <c r="I634" t="n">
         <v>8</v>
@@ -46766,10 +45516,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:40</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44420.71435185185</v>
       </c>
       <c r="I635" t="n">
         <v>1</v>
@@ -46845,10 +45593,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:29</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44420.71422453703</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46916,10 +45662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:25</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44420.71417824074</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -46995,10 +45739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H638" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:16</t>
-        </is>
+      <c r="H638" s="1" t="n">
+        <v>44420.71407407407</v>
       </c>
       <c r="I638" t="n">
         <v>508</v>
@@ -47066,10 +45808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H639" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:16</t>
-        </is>
+      <c r="H639" s="1" t="n">
+        <v>44420.71407407407</v>
       </c>
       <c r="I639" t="n">
         <v>0</v>
@@ -47137,10 +45877,8 @@
           <t>5138707063</t>
         </is>
       </c>
-      <c r="H640" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:16</t>
-        </is>
+      <c r="H640" s="1" t="n">
+        <v>44420.71407407407</v>
       </c>
       <c r="I640" t="n">
         <v>0</v>
@@ -47216,10 +45954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H641" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:08:06</t>
-        </is>
+      <c r="H641" s="1" t="n">
+        <v>44420.71395833333</v>
       </c>
       <c r="I641" t="n">
         <v>8</v>
@@ -47289,10 +46025,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H642" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:57</t>
-        </is>
+      <c r="H642" s="1" t="n">
+        <v>44420.71385416666</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
@@ -47364,10 +46098,8 @@
           <t>5138699421</t>
         </is>
       </c>
-      <c r="H643" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:50</t>
-        </is>
+      <c r="H643" s="1" t="n">
+        <v>44420.71377314815</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
@@ -47443,10 +46175,8 @@
           <t>5138701603</t>
         </is>
       </c>
-      <c r="H644" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:40</t>
-        </is>
+      <c r="H644" s="1" t="n">
+        <v>44420.71365740741</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
@@ -47522,10 +46252,8 @@
           <t>5138698875</t>
         </is>
       </c>
-      <c r="H645" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:39</t>
-        </is>
+      <c r="H645" s="1" t="n">
+        <v>44420.71364583333</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
@@ -47593,10 +46321,8 @@
           <t>5138701461</t>
         </is>
       </c>
-      <c r="H646" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:37</t>
-        </is>
+      <c r="H646" s="1" t="n">
+        <v>44420.71362268519</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
@@ -47656,10 +46382,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H647" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:30</t>
-        </is>
+      <c r="H647" s="1" t="n">
+        <v>44420.71354166666</v>
       </c>
       <c r="I647" t="n">
         <v>42</v>
@@ -47731,10 +46455,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H648" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:28</t>
-        </is>
+      <c r="H648" s="1" t="n">
+        <v>44420.71351851852</v>
       </c>
       <c r="I648" t="n">
         <v>6</v>
@@ -47806,10 +46528,8 @@
           <t>5138700717</t>
         </is>
       </c>
-      <c r="H649" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:19</t>
-        </is>
+      <c r="H649" s="1" t="n">
+        <v>44420.71341435185</v>
       </c>
       <c r="I649" t="n">
         <v>64</v>
@@ -47885,10 +46605,8 @@
           <t>5138697789</t>
         </is>
       </c>
-      <c r="H650" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:16</t>
-        </is>
+      <c r="H650" s="1" t="n">
+        <v>44420.71337962963</v>
       </c>
       <c r="I650" t="n">
         <v>1</v>
@@ -47960,10 +46678,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H651" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:10</t>
-        </is>
+      <c r="H651" s="1" t="n">
+        <v>44420.71331018519</v>
       </c>
       <c r="I651" t="n">
         <v>0</v>
@@ -48027,10 +46743,8 @@
           <t>5138700156</t>
         </is>
       </c>
-      <c r="H652" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:06</t>
-        </is>
+      <c r="H652" s="1" t="n">
+        <v>44420.71326388889</v>
       </c>
       <c r="I652" t="n">
         <v>0</v>
@@ -48106,10 +46820,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H653" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:07:05</t>
-        </is>
+      <c r="H653" s="1" t="n">
+        <v>44420.71325231482</v>
       </c>
       <c r="I653" t="n">
         <v>0</v>
@@ -48185,10 +46897,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H654" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:53</t>
-        </is>
+      <c r="H654" s="1" t="n">
+        <v>44420.71311342593</v>
       </c>
       <c r="I654" t="n">
         <v>0</v>
@@ -48256,10 +46966,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H655" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:49</t>
-        </is>
+      <c r="H655" s="1" t="n">
+        <v>44420.71306712963</v>
       </c>
       <c r="I655" t="n">
         <v>81</v>
@@ -48335,10 +47043,8 @@
           <t>5138689183</t>
         </is>
       </c>
-      <c r="H656" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:43</t>
-        </is>
+      <c r="H656" s="1" t="n">
+        <v>44420.71299768519</v>
       </c>
       <c r="I656" t="n">
         <v>0</v>
@@ -48410,10 +47116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H657" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:35</t>
-        </is>
+      <c r="H657" s="1" t="n">
+        <v>44420.71290509259</v>
       </c>
       <c r="I657" t="n">
         <v>0</v>
@@ -48490,10 +47194,8 @@
           <t>5138695670</t>
         </is>
       </c>
-      <c r="H658" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:32</t>
-        </is>
+      <c r="H658" s="1" t="n">
+        <v>44420.71287037037</v>
       </c>
       <c r="I658" t="n">
         <v>17</v>
@@ -48569,10 +47271,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H659" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:29</t>
-        </is>
+      <c r="H659" s="1" t="n">
+        <v>44420.71283564815</v>
       </c>
       <c r="I659" t="n">
         <v>1</v>
@@ -48648,10 +47348,8 @@
           <t>5138695243</t>
         </is>
       </c>
-      <c r="H660" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:22</t>
-        </is>
+      <c r="H660" s="1" t="n">
+        <v>44420.71275462963</v>
       </c>
       <c r="I660" t="n">
         <v>1</v>
@@ -48719,10 +47417,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H661" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:21</t>
-        </is>
+      <c r="H661" s="1" t="n">
+        <v>44420.71274305556</v>
       </c>
       <c r="I661" t="n">
         <v>0</v>
@@ -48782,10 +47478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H662" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:16</t>
-        </is>
+      <c r="H662" s="1" t="n">
+        <v>44420.71268518519</v>
       </c>
       <c r="I662" t="n">
         <v>0</v>
@@ -48857,10 +47551,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H663" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:11</t>
-        </is>
+      <c r="H663" s="1" t="n">
+        <v>44420.71262731482</v>
       </c>
       <c r="I663" t="n">
         <v>0</v>
@@ -48936,10 +47628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H664" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:11</t>
-        </is>
+      <c r="H664" s="1" t="n">
+        <v>44420.71262731482</v>
       </c>
       <c r="I664" t="n">
         <v>6</v>
@@ -49015,10 +47705,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H665" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:09</t>
-        </is>
+      <c r="H665" s="1" t="n">
+        <v>44420.71260416666</v>
       </c>
       <c r="I665" t="n">
         <v>0</v>
@@ -49094,10 +47782,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H666" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:06:02</t>
-        </is>
+      <c r="H666" s="1" t="n">
+        <v>44420.71252314815</v>
       </c>
       <c r="I666" t="n">
         <v>0</v>
@@ -49161,10 +47847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H667" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:55</t>
-        </is>
+      <c r="H667" s="1" t="n">
+        <v>44420.71244212963</v>
       </c>
       <c r="I667" t="n">
         <v>1</v>
@@ -49236,10 +47920,8 @@
           <t>5138683915</t>
         </is>
       </c>
-      <c r="H668" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:53</t>
-        </is>
+      <c r="H668" s="1" t="n">
+        <v>44420.71241898148</v>
       </c>
       <c r="I668" t="n">
         <v>18</v>
@@ -49311,10 +47993,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H669" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:52</t>
-        </is>
+      <c r="H669" s="1" t="n">
+        <v>44420.71240740741</v>
       </c>
       <c r="I669" t="n">
         <v>0</v>
@@ -49382,10 +48062,8 @@
           <t>5138683747</t>
         </is>
       </c>
-      <c r="H670" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:49</t>
-        </is>
+      <c r="H670" s="1" t="n">
+        <v>44420.71237268519</v>
       </c>
       <c r="I670" t="n">
         <v>1</v>
@@ -49461,10 +48139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H671" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:41</t>
-        </is>
+      <c r="H671" s="1" t="n">
+        <v>44420.71228009259</v>
       </c>
       <c r="I671" t="n">
         <v>0</v>
@@ -49540,10 +48216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H672" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:41</t>
-        </is>
+      <c r="H672" s="1" t="n">
+        <v>44420.71228009259</v>
       </c>
       <c r="I672" t="n">
         <v>44</v>
@@ -49607,10 +48281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H673" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:40</t>
-        </is>
+      <c r="H673" s="1" t="n">
+        <v>44420.71226851852</v>
       </c>
       <c r="I673" t="n">
         <v>0</v>
@@ -49670,10 +48342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H674" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:38</t>
-        </is>
+      <c r="H674" s="1" t="n">
+        <v>44420.71224537037</v>
       </c>
       <c r="I674" t="n">
         <v>1</v>
@@ -49741,10 +48411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H675" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:36</t>
-        </is>
+      <c r="H675" s="1" t="n">
+        <v>44420.71222222222</v>
       </c>
       <c r="I675" t="n">
         <v>1</v>
@@ -49816,10 +48484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H676" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:33</t>
-        </is>
+      <c r="H676" s="1" t="n">
+        <v>44420.7121875</v>
       </c>
       <c r="I676" t="n">
         <v>9</v>
@@ -49895,10 +48561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H677" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:31</t>
-        </is>
+      <c r="H677" s="1" t="n">
+        <v>44420.71216435185</v>
       </c>
       <c r="I677" t="n">
         <v>0</v>
@@ -49974,10 +48638,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H678" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:27</t>
-        </is>
+      <c r="H678" s="1" t="n">
+        <v>44420.71211805556</v>
       </c>
       <c r="I678" t="n">
         <v>1</v>
@@ -50053,10 +48715,8 @@
           <t>5138685982</t>
         </is>
       </c>
-      <c r="H679" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:26</t>
-        </is>
+      <c r="H679" s="1" t="n">
+        <v>44420.71210648148</v>
       </c>
       <c r="I679" t="n">
         <v>0</v>
@@ -50124,10 +48784,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H680" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:21</t>
-        </is>
+      <c r="H680" s="1" t="n">
+        <v>44420.71204861111</v>
       </c>
       <c r="I680" t="n">
         <v>0</v>
@@ -50199,10 +48857,8 @@
           <t>5138669426</t>
         </is>
       </c>
-      <c r="H681" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:14</t>
-        </is>
+      <c r="H681" s="1" t="n">
+        <v>44420.71196759259</v>
       </c>
       <c r="I681" t="n">
         <v>14</v>
@@ -50280,10 +48936,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H682" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:12</t>
-        </is>
+      <c r="H682" s="1" t="n">
+        <v>44420.71194444445</v>
       </c>
       <c r="I682" t="n">
         <v>0</v>
@@ -50359,10 +49013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H683" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:06</t>
-        </is>
+      <c r="H683" s="1" t="n">
+        <v>44420.711875</v>
       </c>
       <c r="I683" t="n">
         <v>0</v>
@@ -50426,10 +49078,8 @@
           <t>5138685140</t>
         </is>
       </c>
-      <c r="H684" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:06</t>
-        </is>
+      <c r="H684" s="1" t="n">
+        <v>44420.711875</v>
       </c>
       <c r="I684" t="n">
         <v>6</v>
@@ -50505,10 +49155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H685" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:05:02</t>
-        </is>
+      <c r="H685" s="1" t="n">
+        <v>44420.7118287037</v>
       </c>
       <c r="I685" t="n">
         <v>14</v>
@@ -50584,10 +49232,8 @@
           <t>5138678124</t>
         </is>
       </c>
-      <c r="H686" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:53</t>
-        </is>
+      <c r="H686" s="1" t="n">
+        <v>44420.71172453704</v>
       </c>
       <c r="I686" t="n">
         <v>1</v>
@@ -50663,10 +49309,8 @@
           <t>5138678099</t>
         </is>
       </c>
-      <c r="H687" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:53</t>
-        </is>
+      <c r="H687" s="1" t="n">
+        <v>44420.71172453704</v>
       </c>
       <c r="I687" t="n">
         <v>3</v>
@@ -50726,10 +49370,8 @@
           <t>5138678080</t>
         </is>
       </c>
-      <c r="H688" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:52</t>
-        </is>
+      <c r="H688" s="1" t="n">
+        <v>44420.71171296296</v>
       </c>
       <c r="I688" t="n">
         <v>4</v>
@@ -50805,10 +49447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H689" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:50</t>
-        </is>
+      <c r="H689" s="1" t="n">
+        <v>44420.71168981482</v>
       </c>
       <c r="I689" t="n">
         <v>0</v>
@@ -50876,10 +49516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H690" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:49</t>
-        </is>
+      <c r="H690" s="1" t="n">
+        <v>44420.71167824074</v>
       </c>
       <c r="I690" t="n">
         <v>0</v>
@@ -50939,10 +49577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H691" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:47</t>
-        </is>
+      <c r="H691" s="1" t="n">
+        <v>44420.71165509259</v>
       </c>
       <c r="I691" t="n">
         <v>0</v>
@@ -51006,10 +49642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H692" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:46</t>
-        </is>
+      <c r="H692" s="1" t="n">
+        <v>44420.71164351852</v>
       </c>
       <c r="I692" t="n">
         <v>0</v>
@@ -51085,10 +49719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H693" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:43</t>
-        </is>
+      <c r="H693" s="1" t="n">
+        <v>44420.71160879629</v>
       </c>
       <c r="I693" t="n">
         <v>178</v>
@@ -51160,10 +49792,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H694" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:43</t>
-        </is>
+      <c r="H694" s="1" t="n">
+        <v>44420.71160879629</v>
       </c>
       <c r="I694" t="n">
         <v>16</v>
@@ -51239,10 +49869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H695" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:42</t>
-        </is>
+      <c r="H695" s="1" t="n">
+        <v>44420.71159722222</v>
       </c>
       <c r="I695" t="n">
         <v>1</v>
@@ -51315,10 +49943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H696" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:37</t>
-        </is>
+      <c r="H696" s="1" t="n">
+        <v>44420.71153935185</v>
       </c>
       <c r="I696" t="n">
         <v>965</v>
@@ -51394,10 +50020,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H697" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:36</t>
-        </is>
+      <c r="H697" s="1" t="n">
+        <v>44420.71152777778</v>
       </c>
       <c r="I697" t="n">
         <v>9</v>
@@ -51465,10 +50089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H698" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:35</t>
-        </is>
+      <c r="H698" s="1" t="n">
+        <v>44420.7115162037</v>
       </c>
       <c r="I698" t="n">
         <v>1</v>
@@ -51540,10 +50162,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H699" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:34</t>
-        </is>
+      <c r="H699" s="1" t="n">
+        <v>44420.71150462963</v>
       </c>
       <c r="I699" t="n">
         <v>1784</v>
@@ -51615,10 +50235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H700" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:34</t>
-        </is>
+      <c r="H700" s="1" t="n">
+        <v>44420.71150462963</v>
       </c>
       <c r="I700" t="n">
         <v>0</v>
@@ -51682,10 +50300,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H701" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:26</t>
-        </is>
+      <c r="H701" s="1" t="n">
+        <v>44420.71141203704</v>
       </c>
       <c r="I701" t="n">
         <v>0</v>
@@ -51762,10 +50378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H702" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:25</t>
-        </is>
+      <c r="H702" s="1" t="n">
+        <v>44420.71140046296</v>
       </c>
       <c r="I702" t="n">
         <v>1</v>
@@ -51833,10 +50447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H703" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:24</t>
-        </is>
+      <c r="H703" s="1" t="n">
+        <v>44420.71138888889</v>
       </c>
       <c r="I703" t="n">
         <v>0</v>
@@ -51912,10 +50524,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:20</t>
-        </is>
+      <c r="H704" s="1" t="n">
+        <v>44420.71134259259</v>
       </c>
       <c r="I704" t="n">
         <v>0</v>
@@ -51979,10 +50589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:18</t>
-        </is>
+      <c r="H705" s="1" t="n">
+        <v>44420.71131944445</v>
       </c>
       <c r="I705" t="n">
         <v>1</v>
@@ -52050,10 +50658,8 @@
           <t>5138669426</t>
         </is>
       </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:16</t>
-        </is>
+      <c r="H706" s="1" t="n">
+        <v>44420.71129629629</v>
       </c>
       <c r="I706" t="n">
         <v>51</v>
@@ -52121,10 +50727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H707" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:11</t>
-        </is>
+      <c r="H707" s="1" t="n">
+        <v>44420.71123842592</v>
       </c>
       <c r="I707" t="n">
         <v>0</v>
@@ -52192,10 +50796,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H708" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:10</t>
-        </is>
+      <c r="H708" s="1" t="n">
+        <v>44420.71122685185</v>
       </c>
       <c r="I708" t="n">
         <v>0</v>
@@ -52263,10 +50865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H709" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:07</t>
-        </is>
+      <c r="H709" s="1" t="n">
+        <v>44420.71119212963</v>
       </c>
       <c r="I709" t="n">
         <v>0</v>
@@ -52338,10 +50938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H710" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:07</t>
-        </is>
+      <c r="H710" s="1" t="n">
+        <v>44420.71119212963</v>
       </c>
       <c r="I710" t="n">
         <v>0</v>
@@ -52413,10 +51011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H711" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:03</t>
-        </is>
+      <c r="H711" s="1" t="n">
+        <v>44420.71114583333</v>
       </c>
       <c r="I711" t="n">
         <v>236</v>
@@ -52484,10 +51080,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H712" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:03</t>
-        </is>
+      <c r="H712" s="1" t="n">
+        <v>44420.71114583333</v>
       </c>
       <c r="I712" t="n">
         <v>0</v>
@@ -52555,10 +51149,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H713" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:04:00</t>
-        </is>
+      <c r="H713" s="1" t="n">
+        <v>44420.71111111111</v>
       </c>
       <c r="I713" t="n">
         <v>0</v>
@@ -52626,10 +51218,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H714" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:59</t>
-        </is>
+      <c r="H714" s="1" t="n">
+        <v>44420.71109953704</v>
       </c>
       <c r="I714" t="n">
         <v>1</v>
@@ -52705,10 +51295,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H715" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:57</t>
-        </is>
+      <c r="H715" s="1" t="n">
+        <v>44420.71107638889</v>
       </c>
       <c r="I715" t="n">
         <v>0</v>
@@ -52784,10 +51372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H716" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:55</t>
-        </is>
+      <c r="H716" s="1" t="n">
+        <v>44420.71105324074</v>
       </c>
       <c r="I716" t="n">
         <v>0</v>
@@ -52863,10 +51449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H717" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:50</t>
-        </is>
+      <c r="H717" s="1" t="n">
+        <v>44420.71099537037</v>
       </c>
       <c r="I717" t="n">
         <v>1</v>
@@ -52934,10 +51518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H718" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:47</t>
-        </is>
+      <c r="H718" s="1" t="n">
+        <v>44420.71096064815</v>
       </c>
       <c r="I718" t="n">
         <v>0</v>
@@ -53001,10 +51583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H719" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:45</t>
-        </is>
+      <c r="H719" s="1" t="n">
+        <v>44420.7109375</v>
       </c>
       <c r="I719" t="n">
         <v>0</v>
@@ -53076,10 +51656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H720" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:44</t>
-        </is>
+      <c r="H720" s="1" t="n">
+        <v>44420.71092592592</v>
       </c>
       <c r="I720" t="n">
         <v>2465</v>
@@ -53157,10 +51735,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H721" t="inlineStr">
-        <is>
-          <t>2021-08-12 17:03:43</t>
-        </is>
+      <c r="H721" s="1" t="n">
+        <v>44420.71091435185</v>
       </c>
       <c r="I721" t="n">
         <v>1</v>
